--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/48_Kinkkale_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/48_Kinkkale_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1FBCB20-0899-4D29-B0F8-D6D48EC87227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1B77AAA-ED5C-4F78-8230-1E7357751729}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{1FE98479-8049-425F-BA37-90788195DDAA}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="686" xr2:uid="{936C56B9-0B11-4E72-82C0-28BB30FC6F40}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="92" r:id="rId1"/>
@@ -982,14 +982,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{4E4D3C82-0AF8-453E-BF97-A3C759AFDE1C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{5DBB3A17-30F1-4ACF-9E79-3832DE3A6243}"/>
-    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{73C2BB72-911B-4FDB-AE04-AF4AA0CD28B3}"/>
-    <cellStyle name="Normal 3" xfId="5" xr:uid="{5AB6C371-5697-4077-9BCC-60FE914252B1}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{32CEAB74-4252-435F-A85F-FA2123018791}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{E969DDB8-5421-4532-A886-CB5BC646BFEB}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{6936A3B8-DCA8-41FD-8F8B-FB554C3BAAE2}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{7BB877F0-1E76-43BD-90E1-269C8BDB0734}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{A3869C10-3B65-465E-BCB7-6248524EB888}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F782E872-C9D6-450E-AF5E-95F971BF9B84}"/>
+    <cellStyle name="Normal 2 3" xfId="4" xr:uid="{507FADB0-0CD9-4971-99D3-F37687F5970D}"/>
+    <cellStyle name="Normal 3" xfId="5" xr:uid="{713979B2-77E3-43E1-8EE4-BCD8FD3D78BD}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{4B3F7206-62B9-4EE6-8099-AE9581A34306}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{E43A9410-CEE8-4DA9-961F-54BB520F0363}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{1218A859-43FD-4F3F-8013-98CA29A56AB7}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{2963C3EE-F3CF-4BD5-834D-B328C5F4FBB1}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1359,7 +1359,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C4D101F-08F8-4599-B087-ED94B5087360}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AACB8D2F-2698-470A-9697-D16F0AF61155}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2639,18 +2639,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A06AAD11-F9F4-4528-9B5F-4262B54F00EB}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D43DDF69-B404-4BDA-8C3F-BF03AEAF5603}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95B2FDC4-831E-4792-83AB-1CB970F75FCE}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{2E42848A-558A-4E8D-88D2-D08CDEA3ECA8}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{85E2443B-F036-46E8-9C2F-E2F258B68D28}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ADC0E9FB-C82A-4EE7-A60F-8C2E4CF851E1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6ED53115-A9C3-4BB0-845D-4D8D25A4F53E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{085D255F-A408-4181-866E-A9038CD77F49}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E79FE130-5084-45D7-8565-FD9F4BE4AC3B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{36546E42-BDB6-46CC-833C-9EE2FA69C1E6}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{07B21BD5-1ABD-4AD6-8F8F-D530FE6CCF8C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{42496AA8-70DD-4017-B36B-B4860525EA43}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A13A28BC-4E38-402B-98B8-372CA1497A62}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9B9DEA8E-A895-4139-8229-8D24600952A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D792138-5D1D-4327-8ECF-B8371F2D4BD5}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AB71D0F2-E4D8-47F5-A7B5-FFC666D98B61}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C6978CAC-AE1C-49D3-A4FB-A82904BC83F2}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0F49CE4E-FA0C-48F5-9025-E2724E740928}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{456F1C46-7684-4EA6-BBE4-FD2593126364}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E120C809-FE24-4935-BAD5-5CD46CA1F12E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1544321D-30B7-4CD0-8F07-96E335786FBC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{29209FCE-9078-4029-90F3-9D785530A42D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{45CD5FC7-48C2-469D-90CC-950C0ADDF9CA}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9BD6EE99-79AB-44D0-B08F-3243937C2B4A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2663,7 +2663,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{480FB369-2A1C-4185-BEA3-499AA46F7D26}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6DC7648-BDB8-47A5-9E97-50E41CCA288C}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -3935,18 +3935,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{077DDBCD-3CF7-4ED3-BE94-EE388F1A6B7F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FBCD04ED-8941-4FAB-AC1A-4BD68E6AB6CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{40B5D61C-EB67-4861-A3B8-B1831CEA267E}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{12AD2449-20CC-4792-9E5F-37128F4B127B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8E862ACA-7905-4468-B803-33ABA04D2550}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3BE3BA8B-74CC-4F7C-BEDC-CDA35D0C0BBD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1797AC5F-242F-4AE3-96F2-270DF720CB79}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{BFC613EC-874F-4A9C-BAC7-062AB9873A48}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E31CA886-FF6C-41DE-B2E5-FBC92BDB13F2}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{168303A2-4D39-4BD5-A0A5-017BFEBB1BB7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D4A6D99-5F41-4CB8-8640-9F0A4DA88ADF}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E94AF099-ED2D-4BA3-BDC9-1965B0F0FC61}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B815AF30-A5BE-4B8E-B724-79646F6F1068}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{E4CF5F58-E8A8-4FDB-BFD7-B29E532D23B1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5224D04B-34F4-4EB2-889A-4620B3AC3816}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D9128474-8111-4EEC-9B41-C2FA31AB8BB1}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8626030F-EE0D-4EF1-AB8E-984B2F4A9F05}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2515051D-A20C-4A9F-BA6D-9E75F6597E38}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D299EF9D-712C-414E-B1C0-62A3F5DD2329}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{85AD011B-6DD3-49E1-9372-D0B6F19DFA09}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E818B5F7-6855-40F6-96F8-C7E72E49A890}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{8B57FFFD-34A2-4CD1-AF19-D6BDDFE46F07}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B1B86FF4-2165-4467-8234-7EFF7D01DF7C}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{F40406F0-72CA-483F-A7DD-3F6EAC3EBA2C}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3959,7 +3959,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3007C478-1D55-410E-851E-369617D44B34}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2076EB6B-5D39-44F7-AEDF-19A5E2E52F2B}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -5231,17 +5231,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6CA592B5-E750-4CAB-A275-DF95A74E4397}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{01BC7C2D-C59A-4B4F-8F63-16F91AE2FBDC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3DCCA51E-CF60-4232-B50F-DF7D97901D1E}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{C7F6967A-3519-4FF3-ADC6-D3E6CA879E0F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{95239BAE-44F2-4C94-8924-19BABE1C08BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DED035B2-67B4-449F-A356-9D29C013CC0E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1A896A0E-A035-43F8-B8A2-7E84DCB6B553}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{463F2C38-CABE-49B4-B1F5-963223D99F54}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FFE44F1C-C79C-40D3-AE22-5163B69F4B82}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8F0BDD98-F293-4B69-89C9-4D6DC691EAA3}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C2D5F349-4648-453C-B80B-10BB0ECCFDAA}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{0795E6EB-64BA-41ED-9EC3-CE13501B6689}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D52F7E3B-C36B-41E8-8E63-75D01494C34B}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{C45D852A-04C0-4FA2-9211-F753E6AFC092}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{1FE7011F-1B24-4288-BFDD-FE9E317A1DAB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B38B1158-6C84-4749-84E0-0249E0855DE6}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{DF99E9E1-08E7-4D24-A169-67B8BB44F21A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{39CC0003-A4A1-435A-81E6-321CD570D475}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A59A5517-FF45-465D-9DC9-5F2E21845E24}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{860703D3-6C2D-462D-B198-67F3705FCAA0}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{294E0721-26FF-420A-A9A9-11EC89DD0E92}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{A613CA10-104D-47F0-B96C-167B137027D1}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5254,7 +5254,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA932B2-C26A-432C-9C89-948015589056}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A561E08-481F-4D77-A1E1-9BDBDB2E8998}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -6526,18 +6526,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FF1D88B1-A758-473F-BC1B-585054FB4329}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8D978E92-FF65-4233-BAC2-EE814F936D1A}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F64559EA-5BA6-4AFB-B547-1796A5D623C1}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{AEC2583A-E1FD-42FB-9BC3-703DDC63A884}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{829A18B3-0724-4354-880D-75A87EE1316E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{0E23615D-3FF7-49F1-AF64-D3AFB545A75D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C7FA8D7A-9498-4303-969C-9EFBE2C99FB0}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{F1E9B944-9657-48C0-A413-BC7AE16D65E3}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{96C0D5D3-C68C-4C6F-9A78-9FF8EFDE4861}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C3A7128-30D8-4170-A47C-CA672AAEC466}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{001E3D6C-59A1-476E-90AB-F0BA7720A2BE}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08B348C7-FA2B-46A0-8406-A9E65104C463}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EABBAC03-1767-4247-80E4-C218F16A0BB8}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{793697E0-2E50-4203-B82E-C88697DCD704}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{25E903DD-1B6F-46D6-9FE6-116E91638F01}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F63D6F33-F18C-4651-B3F0-6D8395C62972}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6D256FC4-DF5A-4AB2-A250-3001728E4EC8}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{52CF3EC7-CAC5-4C0A-8839-F4E11CA57A31}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{964D9EAC-5727-40F6-82A7-292D46C0BDCA}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{82DC4F04-AADE-4B00-9BAD-1C09810610C8}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{E1D437B3-283E-4DC7-9080-DA167EAB91C9}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{44249D3B-0260-452E-A3F8-9438C465408F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A8B2B92C-A73D-47D6-9225-F4B7953E83F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{86F9C2A6-3BD3-4A41-A98B-0DBE2AE64F3A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6550,7 +6550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA0BA008-64D1-4995-B5EA-E7F49791972C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB169C2-9D85-43C6-8754-5FE0A3DEB772}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7943,18 +7943,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BD85E272-AED6-4FE3-82B6-B080683B8E36}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{857219DC-E709-48AA-8A2C-716EF4C43C99}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{983CF283-C379-4A9A-93DF-72878BAD146D}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{96B2256D-FDA6-4AB6-8959-792692CEA67F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10C91C38-621D-4413-9798-47C6018EB7D1}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A5955D48-FF7F-4334-AB58-ADE36ABA3DFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B5319312-023E-414E-A52D-744D7DB36921}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5451C718-B404-4C83-8AD3-9FCCAA1F3C5A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D7208958-6936-4467-94E8-1ADF0284387E}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6AB4634D-DE9C-421F-BAC3-90EA5D93800E}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B97CD13B-71F6-4396-88AA-114B38C780E6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E0CF100B-8168-4FCE-9499-D8A0A249D752}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AAC27459-CAA5-480B-B2FA-915B017AF6A4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{CFB17075-D5FD-4C93-BA1C-84A37B13C993}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57A252CC-F2F5-4CFB-BC93-F9E271CA6BAB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0003E391-EA6A-4A9A-BC3E-6011FF0E190F}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{69206B4C-3006-43DF-9241-0ED0E169A6CA}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F35BBEF4-21CB-423A-8EBA-0C1FF2BA7B09}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4B85A98B-FD91-4102-829E-21B9740268D2}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{330525DD-7D4E-4A07-8FA3-4EEDE2B0609C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5DA23F0B-526E-40AE-AAFD-D6574F585A43}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DD1DF7D9-3144-4A8E-9634-E789DCA1825D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{401D877C-1242-453F-962C-3B527B47BC9F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7CF436C7-3241-4B4C-AC5E-B6636A85A5F3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7967,7 +7967,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{024C0B6B-1365-4A57-AC3A-9A9D01FEBAB5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2D08B61-DEA9-4718-B18C-6FA8D25AAFFD}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9245,17 +9245,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EB2E77F8-B9DB-4D25-902F-D9E399B5D71F}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{F557E696-66C5-4A84-A5DD-3B10ED1BC01D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4C57C724-1423-42FE-A47A-F2606EBCD090}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{F906C166-C35F-4937-97D4-9EBE76F5DC99}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6C41E321-0C8D-4D91-A91A-F1833F9D67AF}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DA9FE329-BF22-4261-8B73-85A3904D59DB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{CBC38072-4B20-40E8-B625-7110F4873315}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{56CD3F0F-957E-4A70-861F-376071464E71}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{66A7C51B-A58F-49A0-903F-A6465A9FD849}"/>
-    <hyperlink ref="C7" location="KASIM!A1" display="KASIM" xr:uid="{9BC3551B-AC5A-4915-82A1-02B3EBD6E02A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CEC24262-D1F4-4289-82EE-692C3C7B63BE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{81B16F8D-7C93-4DCD-A438-C27372FAAC2B}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D3DEB877-31BC-4127-A7A5-74BF900A6613}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0D944E02-33FA-4859-8CF2-954A6A0C1B47}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5327A947-D779-42FC-A89D-A87BC7FD2A90}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5D20732B-B73D-4014-84B2-F9E6DCE6DB5E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70C4CAF9-2F61-4299-B973-EF41A03CA34A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E78215E6-0FCB-4A67-841B-7B0ACC69559D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ED0AA5F1-5093-4630-B967-3E87D66335EA}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{69BB56C4-7C1F-403E-B09D-50BD802D8029}"/>
+    <hyperlink ref="C7" location="KASIM!A1" display="KASIM" xr:uid="{D8C5B1C4-7537-4D59-9E87-9E904509C9AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6CFAEC8F-1456-4BE9-B9DC-200CB79B4693}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9268,7 +9268,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9C771AF-58AC-43E0-A372-7F0122F2D031}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7BC0E12C-BC09-4E8C-8969-B2D2524F9A3B}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10548,18 +10548,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{85347BD1-9773-4BBA-B183-D1F8FBB319E0}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{D526624F-300B-458A-962B-EAE53D14F015}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3DB3EF2B-95EC-403A-A73C-C62DBA07B0C4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{49EE5BCB-9A53-4C12-BF17-BCD83437C675}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{10F6C5BE-B33D-49A8-B689-4182811B70F4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{DAFD1259-6008-4512-AD8E-C8674460581B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5398B1D0-58B1-4E91-822B-0BE245AC9337}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CA9D34F6-5D5F-4FE1-BD69-644B400F31A4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{48AC2F5F-35BF-4E55-AEF4-9EDECAEF2DEF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D6D5BA76-FD78-47B1-9BE1-6A589F9CFEAF}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FA4D21FC-4E0F-4077-BD6B-26376A363129}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{575F2D5D-6C75-4DE1-A6DC-F35EF0C8E283}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{47744783-C92F-47F3-B254-7A3C74F9C941}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{49F2C0B5-7244-4744-A74E-59C36A399C9B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F0E1085-A82D-4E41-BDB6-6122799C9284}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7388A2E4-1E15-46E7-89EF-ED76390F78FB}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E7796716-DC41-48A5-89E3-8802500668D5}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{91BED0A1-EF5B-48EF-9098-63D44D31919D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D079D2C1-6B7B-4387-9950-476EED17CC7B}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9FA7526-8FB3-428E-AE3F-56E30787121C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{07E61D58-4EC9-4F1B-BF0A-2BC5C1B1AC3B}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C960D759-AC44-4E6A-80B4-1331B62995E6}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{01CF354E-3596-4044-BF20-4D85E4140395}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B0C5F81A-E7FA-46C0-92A4-87C8A56E0D8A}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10572,7 +10572,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37F6CF50-9ED4-4E59-A656-BC801F85B2D0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{314F84E7-8887-48DD-9A75-01E1C2FD1D77}">
   <dimension ref="B2:F101"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11852,18 +11852,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{41B1A8BB-43B1-431F-BA70-572EF7EA58D8}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{94BC1DED-F259-4DFC-ADAF-D458A13DEE19}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9DD95B8F-C5AD-4308-B5B1-95D0985BB8E4}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D9D01FA0-84D1-4A4D-A831-03464251B148}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{71F2F725-2009-42BA-B934-DDF4FB469173}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2030CC11-8EF6-4BAE-B310-90BA92E25DFF}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{66088C49-67D4-4A2F-A3EA-630B7660A449}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A39A9EE6-F53E-4FD6-919A-3B3F0374474F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A3803931-2310-4B0E-BC96-113C207FACA3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{93173BD0-07F7-4FA5-87D7-81FE2B00A2FC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB3AAAE9-F46C-44B1-970E-0ABE13C3CB40}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6CCD97C5-AEE3-43A3-8BD9-AD933A3CDAA6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{118AF6A7-595D-463B-BB0B-4891EF3E2657}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9B78E57C-1CD8-4CD5-99DD-21443C17A3A3}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7B0C1B77-6FF4-48B3-8032-0D45A29D33E4}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8831BD8F-A1DE-428F-9433-29D11C5D24D0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E36113D7-6441-440F-B750-726AA6F0761E}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7BE919F0-4FA3-4355-AA6F-6113BE0D0CB9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BAFE810A-F8EA-4177-B558-110E1959C57F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1747CF5E-9AAD-4E05-A2D4-4967C9F24414}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9479B322-8480-4342-A723-DAC1E84AC240}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{561E8E77-DB64-40BC-9541-0AD55D68A014}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{82419062-050F-4891-8FAD-41DC885BCA85}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{08E26C57-E5F4-47A6-AFC8-07C4AB342F86}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11876,7 +11876,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70736E3-C122-44FC-B3CD-005E7F6AB665}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3167E7F8-0FA9-46EA-AAA1-4891552AF65F}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13148,18 +13148,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1CC3E1B8-9DD6-4727-A41E-6776CBAE9738}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{0700E95C-2694-439B-907B-7980B2AA63F0}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{367B619B-FC95-4185-9F7D-CBC4636E8329}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{69216FD8-5D4B-4F47-B78B-73542CD0E41F}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{035B25C8-28A4-456A-9ACF-A04A7DFBD3C7}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{88413C8C-9C65-4805-9E57-B70E4DE64CFE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AD5F2FDB-BED4-44B8-928A-D5BD14FFE1BF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{12191F3E-2FE1-4848-8559-B59D9BC95A17}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{7B30E512-DFD4-494B-8FD7-67CD1DE01AE0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B9F65160-6E83-430E-8898-62625D3F110F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C67DBF1F-3E44-4CE4-9836-1A61EC06890C}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FADCCB7C-4370-4C08-B8D7-9CDA577CA34C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{62545634-F36D-4614-8581-2CE78BE37D49}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{A6A0AED8-E316-4F17-AEB1-924FD94964CB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{0DF031EE-064F-4D3E-B210-51C51B61AF77}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{B6961D8C-7EA0-429E-8472-FBFA2C7783C0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{E25237F0-93B2-459A-90CA-880DB9F8F2B9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{007543C5-C88A-46A9-937B-3C7126890E9D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BFE2BD7A-A56A-4290-84C7-D962256E3D6F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C220248F-D6EE-4E09-BE26-91620059013B}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ADED6C16-BABB-45E6-A3F9-B0573B3404C5}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{754002A0-2CFE-4E1B-B3C4-AEE80315DA73}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8C3D61F0-FE7D-4333-9CF8-214928394F45}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{0303EDB4-7AA1-49E4-B025-0A899E26162E}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13172,7 +13172,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FA46B05-3561-45E5-82C7-8B7541EA197C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3D1F01E-ABD1-4BAD-83BB-361560441505}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14444,18 +14444,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6B0B2A2F-848C-4EFC-91E2-88F177228901}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{4AC1F6DB-E0AA-40F8-B407-9E58F59D720E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{9701101D-EFB8-485C-9569-7D8B1B685099}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1629A856-2E40-4E91-9DF0-CA43C26A1C08}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8837E063-7B95-49DA-A03D-FFC959858CDD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{66F7DC6C-CAB1-4600-88F6-2AD76E127778}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{123B1AEB-8072-4F75-A038-8B2545953412}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2A4C2065-D11A-4BC9-84CC-BFA878EDA851}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A44D0756-EA14-4FAD-B836-3E04428012C7}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{BE6E5CEE-B278-4615-82A9-E512C08DF61D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{00486640-6E78-4849-ADA6-617ED5E3BC53}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{62E748E3-859F-4813-8458-40DCE40ED9F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{29DE4A5B-066D-4310-9B60-2A09A7019E72}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{FD3DAF96-A1E8-49D2-A87E-CD7F359FD42B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{063621DB-3D57-4829-8186-C8EA01594719}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7447DBF9-A164-4267-A1B7-E93457B78B93}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6846A7AB-E104-479D-9B0A-5105A72D05C7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{89154886-822D-4837-9B42-273E011BF062}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6B94C7E1-CBEF-44A6-89EF-E4CB2DBDB582}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8FABF4D4-53F9-487F-A0D5-F7E24613AA11}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{73A9479B-48AD-48F1-8687-F52C3256016A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{3B425DD3-BA56-4892-9A08-38169D40793D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{4F6C5F7D-7A31-4DA1-805B-F68B18C389F4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95ADFCA0-F8C0-475D-BAE4-60E4B818A518}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14468,7 +14468,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD5B6C0B-2C95-43E4-B671-4F268115B2F1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7716AB2-1DB5-4C04-8F78-13ACCFC9C6B8}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -15740,18 +15740,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{FE0AD790-5A25-414D-BE2F-494AECDA6599}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{941FFC2D-76CD-4E98-AA0E-05D95EE73759}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B4CCD0AE-3B5C-4BEC-9D70-1A7817BFD0DA}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{5DC60CBD-A584-478D-8F45-0E52F85241A3}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7EC60E36-2727-4CCB-8931-D9270AFEA021}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB09E6BF-5C56-4119-B41D-D8B8CE78ECA5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{056D6F33-98D2-41FF-80ED-13623AA728A3}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{8C386710-4326-4AC7-B98B-675CA5F4591C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{940877A7-8316-411C-8791-71CC732800F1}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A0DED55F-FFC9-402D-8D5F-93BE5D92BD4C}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{61D691E4-7290-4C6B-AD44-7E8F6181EDD8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7DC2A87F-5EDD-47C0-A9FB-CB2E2E2F6191}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F90C2B30-14C4-444E-A148-713C3DF785B4}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{77B553EB-FF46-41E7-A681-21E84E630C30}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F94886EC-E9E3-4FAB-B1C1-673CD832B241}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{714313DB-F6C4-4D80-92D9-C0629710570B}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3A2AD1DD-F59D-41FF-964F-B5FE5BCF899F}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{44C7996B-245B-4F69-B6FD-D611B35F8A55}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4047A4D4-3792-4D52-B484-4CF09477BA3D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{33E696AA-92A5-433C-9588-6952240C65A3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A63E42B1-7EA6-4368-8262-F7F9D153BF57}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{49737BE1-3B7B-4AEC-88BC-37D7F0D54290}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8779CAC3-3CDF-43DC-8F53-A7E68AD8D0D0}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{305B50AF-182E-4EF2-9772-2E8D91FBA769}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15764,7 +15764,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3503993A-95A4-4B9B-83B7-6120ACC947E7}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D14826CE-C793-41BF-89C8-DA2F98DAFA58}">
   <dimension ref="B2:F100"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -17036,18 +17036,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{79CB1E96-9B62-4BCE-AAE5-BCC81AF7D880}"/>
-    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{C8A5EE37-FFDE-4D36-B3D1-A06C6A5AF6FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8A623CA2-B38A-40E2-A189-2155E5DDB029}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{85E403B8-75E9-45E8-88E2-55A4B694F581}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{2576982F-A1B9-4FD8-A4F8-58FF8DDC6586}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{91107BB0-751D-4AD4-B0CB-805AB2B187B5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{D28AE218-C07E-484E-9698-58D5349F66DE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{45A0C44A-D898-4FB8-9761-4B892C80FDAB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{C1BAED71-1379-4442-BCC9-51CFA8A0CF06}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{39562313-F99D-4B1E-8285-EF737E1D4134}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{39BD8886-805F-4D06-856A-121D44992FBD}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{95FABBA3-1770-43A5-964C-CE56969FBFBE}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{74A2E23B-AD62-4EE4-B02F-C4F9F508D446}"/>
+    <hyperlink ref="E4" location="'MART '!A1" display="MART" xr:uid="{9B647B3E-9694-41B8-A149-B58146B85325}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{216C95F5-DF94-43F2-B9FA-0418FA91E6D9}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7295D39B-4469-42C4-933C-982DFEAE5E64}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{60BD2450-0218-4260-BBAF-17342A0BAD18}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B3D0F5EA-FE9D-42D8-9BC0-F3D3914BFB69}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0648CA60-5F4E-4125-838C-962298C20114}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6BAC840A-690D-40B8-83A2-82020DB5E592}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{92F840D7-5870-4059-876D-D62816D837D7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FE465DB4-0C7E-497D-9759-E618E24AEAE7}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{A9775EA4-5478-45A7-89B9-C9753C193DF1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{FB459B63-D895-4441-AA8B-5C1B07465A25}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
